--- a/Inventory_Report - דוח מלאי.xlsx
+++ b/Inventory_Report - דוח מלאי.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec38e22a6a0fc19b/שולחן העבודה/פרויקט גמר/pythonProject/InventoryManagementSystem/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8736A5BB14729294760FCC3CE52FCF2A4EF74C66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878C2E0A-46AA-4D67-A3B0-9804C563DCA8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -430,15 +436,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,7 +452,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,12 +504,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -521,22 +545,25 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>כמות במלאי</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>report!B2:B30</c:f>
+              <c:f>report!$B$2:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
@@ -631,7 +658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!D2:D30</c:f>
+              <c:f>report!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -725,7 +752,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29AD-4D3B-AB2C-13F0938E5A99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -734,22 +775,66 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>פריט או חודש</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>כמות</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -758,9 +843,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -775,19 +862,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -806,9 +899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +939,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -880,6 +973,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -914,9 +1008,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1089,14 +1184,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1269,7 @@
         <v>45769</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1207,10 +1304,10 @@
         <v>135</v>
       </c>
       <c r="L3" s="2">
-        <v>45780.85484953703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>45780.854849537027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1245,10 +1342,10 @@
         <v>135</v>
       </c>
       <c r="L4" s="2">
-        <v>45783.54762731482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>45783.547627314823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1283,10 +1380,10 @@
         <v>135</v>
       </c>
       <c r="L5" s="2">
-        <v>45787.4104050926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>45787.410405092603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1321,10 +1418,10 @@
         <v>135</v>
       </c>
       <c r="L6" s="2">
-        <v>45780.49537037037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>45780.495370370372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1359,10 +1456,10 @@
         <v>135</v>
       </c>
       <c r="L7" s="2">
-        <v>45769.88483796296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>45769.884837962964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1397,10 +1494,10 @@
         <v>135</v>
       </c>
       <c r="L8" s="2">
-        <v>45777.69719907407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>45777.697199074071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1535,7 @@
         <v>45778.71429398148</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1473,10 +1570,10 @@
         <v>135</v>
       </c>
       <c r="L10" s="2">
-        <v>45778.51263888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>45778.512638888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1511,10 +1608,10 @@
         <v>135</v>
       </c>
       <c r="L11" s="2">
-        <v>45778.51263888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>45778.512638888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1549,10 +1646,10 @@
         <v>135</v>
       </c>
       <c r="L12" s="2">
-        <v>45770.62891203703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>45770.628912037027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1587,10 +1684,10 @@
         <v>135</v>
       </c>
       <c r="L13" s="2">
-        <v>45779.87034722222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>45779.870347222219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1625,10 +1722,10 @@
         <v>135</v>
       </c>
       <c r="L14" s="2">
-        <v>45780.49362268519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>45780.493622685193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1663,10 +1760,10 @@
         <v>135</v>
       </c>
       <c r="L15" s="2">
-        <v>45780.5525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>45780.552499999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1701,10 +1798,10 @@
         <v>135</v>
       </c>
       <c r="L16" s="2">
-        <v>45785.82936342592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>45785.829363425917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1739,10 +1836,10 @@
         <v>136</v>
       </c>
       <c r="L17" s="2">
-        <v>45780.85459490741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>45780.854594907411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1777,10 +1874,10 @@
         <v>136</v>
       </c>
       <c r="L18" s="2">
-        <v>45780.49701388889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>45780.497013888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1915,7 @@
         <v>45790.76971064815</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1841,10 +1938,10 @@
         <v>136</v>
       </c>
       <c r="L20" s="2">
-        <v>45790.76944444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>45790.769444444442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1879,10 +1976,10 @@
         <v>136</v>
       </c>
       <c r="L21" s="2">
-        <v>45769.90306712963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>45769.903067129628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1917,10 +2014,10 @@
         <v>136</v>
       </c>
       <c r="L22" s="2">
-        <v>45776.47423611111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>45776.474236111113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1955,10 +2052,10 @@
         <v>136</v>
       </c>
       <c r="L23" s="2">
-        <v>45778.82876157408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>45778.828761574077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1993,10 +2090,10 @@
         <v>136</v>
       </c>
       <c r="L24" s="2">
-        <v>45780.85487268519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>45780.854872685188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2031,10 +2128,10 @@
         <v>136</v>
       </c>
       <c r="L25" s="2">
-        <v>45778.82841435185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>45778.828414351847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2069,10 +2166,10 @@
         <v>136</v>
       </c>
       <c r="L26" s="2">
-        <v>45775.75944444445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>45775.759444444448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2110,7 +2207,7 @@
         <v>45780.85491898148</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2145,10 +2242,10 @@
         <v>136</v>
       </c>
       <c r="L28" s="2">
-        <v>45769.89425925926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>45769.894259259258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2183,10 +2280,10 @@
         <v>136</v>
       </c>
       <c r="L29" s="2">
-        <v>45780.85480324074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>45780.854803240742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2318,7 @@
         <v>136</v>
       </c>
       <c r="L30" s="2">
-        <v>45769.8943287037</v>
+        <v>45769.894328703696</v>
       </c>
     </row>
   </sheetData>
